--- a/Appendix 2 - Extraction Sheet.xlsx
+++ b/Appendix 2 - Extraction Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\OneDrive\HBKU\A Semesters\Fall 2023\HIS\Scoping review\asgmt 3 - Article &amp; Presentation\Data Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6892F587-ABD5-436D-990E-930187DBEBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342F0A85-6636-4A84-B618-A0E646E25FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>Phases: 4644, 9010, 9496</t>
+  </si>
+  <si>
+    <t>Ref. ID</t>
   </si>
 </sst>
 </file>
@@ -743,10 +746,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FDF9430-99DA-4BFA-AADF-C18A48412E32}" name="Table24" displayName="Table24" ref="A1:P15" totalsRowShown="0">
-  <autoFilter ref="A1:P15" xr:uid="{8FDF9430-99DA-4BFA-AADF-C18A48412E32}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FDF9430-99DA-4BFA-AADF-C18A48412E32}" name="Table24" displayName="Table24" ref="A1:Q15" totalsRowShown="0">
+  <autoFilter ref="A1:Q15" xr:uid="{8FDF9430-99DA-4BFA-AADF-C18A48412E32}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{1078C852-6AA8-44AF-A400-E24740E68D65}" name="#"/>
+    <tableColumn id="2" xr3:uid="{F9DE101D-C944-4D22-8C33-31B68F6474C5}" name="Ref. ID"/>
     <tableColumn id="3" xr3:uid="{3689B5CF-A01F-45C6-ACE1-540F410B1378}" name="Author"/>
     <tableColumn id="4" xr3:uid="{04656345-E85F-4C61-BE14-895773EEF36B}" name="Year"/>
     <tableColumn id="6" xr3:uid="{D163CDF0-2110-45DE-B79D-306A2F55ED00}" name="Country"/>
@@ -1178,784 +1182,831 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86FE41-D8B6-476C-8FA8-B649471C09C3}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2017</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="14">
+      <c r="I3" s="14">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>75</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2023</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="14">
+      <c r="I4" s="14">
         <v>223</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>75</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2017</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>75</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2017</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="14">
+      <c r="I6" s="14">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>69</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>48</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2015</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>70</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>50</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>75</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J8" t="s">
         <v>28</v>
       </c>
       <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>45</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2022</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="14">
+      <c r="I9" s="14">
         <v>207</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>46</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2020</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>72</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>76</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2018</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="14">
+      <c r="I11" s="14">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>51</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2023</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>134</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>28</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>75</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2023</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>135</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="14">
+      <c r="I13" s="14">
         <v>134</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>46</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>75</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2006</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="14">
+      <c r="I14" s="14">
         <v>204</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>46</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>75</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2022</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>71</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>72</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>75</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="5" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="5" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Appendix 2 - Extraction Sheet.xlsx
+++ b/Appendix 2 - Extraction Sheet.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\OneDrive\HBKU\A Semesters\Fall 2023\HIS\Scoping review\asgmt 3 - Article &amp; Presentation\Data Extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\OneDrive\HBKU\A Semesters\Fall 2023\HIS\Scoping review\asgmt 3 - Article &amp; Presentation\Appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342F0A85-6636-4A84-B618-A0E646E25FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C08F35E-27DB-428D-AD52-E732E97E7A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
     <sheet name="Final Extraction Sheet" sheetId="6" r:id="rId2"/>
-    <sheet name="(Reliability Score)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -79,9 +78,6 @@
     <t xml:space="preserve">Type of Interface </t>
   </si>
   <si>
-    <t>Themes</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -197,51 +193,6 @@
   </si>
   <si>
     <t>HPV immunization Vaccine program</t>
-  </si>
-  <si>
-    <t>Dissagreements</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>intervetion</t>
-  </si>
-  <si>
-    <t>participamts</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>finding</t>
-  </si>
-  <si>
-    <t>usecase</t>
-  </si>
-  <si>
-    <t>themes</t>
-  </si>
-  <si>
-    <t>Reliability Score</t>
-  </si>
-  <si>
-    <t>Total Number of Cells</t>
-  </si>
-  <si>
-    <t>Total Number of Dissagreement</t>
-  </si>
-  <si>
-    <t>Total Number of Agreement</t>
   </si>
   <si>
     <t>South Korea</t>
@@ -482,9 +433,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,12 +569,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -765,7 +712,7 @@
     <tableColumn id="14" xr3:uid="{43D7CAD7-048D-4B21-A475-535CF45E5AFA}" name="Use Case" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{8BDF8105-6C9B-4655-A967-187C65104ACA}" name="Type of Interface "/>
     <tableColumn id="16" xr3:uid="{17B1E457-8FC9-4B39-9336-809ACF0245B9}" name="Key Findings "/>
-    <tableColumn id="17" xr3:uid="{C4CD646B-C06C-4862-B9E4-B173636F2BE4}" name="Themes"/>
+    <tableColumn id="17" xr3:uid="{C4CD646B-C06C-4862-B9E4-B173636F2BE4}" name="Measures"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1036,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C9A734-3F5B-4281-9E52-F69AE658DB2B}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1057,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -1065,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1073,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -1086,23 +1033,23 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1110,10 +1057,10 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -1121,15 +1068,15 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -1137,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -1153,23 +1100,23 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1184,9 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86FE41-D8B6-476C-8FA8-B649471C09C3}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1212,10 +1159,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1230,22 +1177,22 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
@@ -1257,10 +1204,10 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1271,49 +1218,49 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="13">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -1324,49 +1271,49 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>124</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="14">
+        <v>107</v>
+      </c>
+      <c r="I3" s="13">
         <v>13</v>
       </c>
       <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1377,49 +1324,49 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="14">
+        <v>110</v>
+      </c>
+      <c r="I4" s="13">
         <v>223</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1430,49 +1377,49 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2017</v>
       </c>
       <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1483,49 +1430,49 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="13">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="14">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1536,49 +1483,49 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2015</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>129</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>28</v>
+        <v>110</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1589,49 +1536,49 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>130</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>28</v>
+        <v>107</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1642,49 +1589,49 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="14">
+        <v>110</v>
+      </c>
+      <c r="I9" s="13">
         <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1695,49 +1642,49 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>2020</v>
       </c>
       <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" t="s">
-        <v>45</v>
-      </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="Q10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1748,49 +1695,49 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>133</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="14">
+        <v>110</v>
+      </c>
+      <c r="I11" s="13">
         <v>38</v>
       </c>
       <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1801,49 +1748,49 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>2023</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q12" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1854,49 +1801,49 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>2023</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="14">
+        <v>107</v>
+      </c>
+      <c r="I13" s="13">
         <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="s">
         <v>101</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1907,49 +1854,49 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>2006</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>129</v>
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="14">
+        <v>110</v>
+      </c>
+      <c r="I14" s="13">
         <v>204</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1960,54 +1907,54 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="K15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2016,198 +1963,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21F48FB-6EC5-4319-BD34-168FCAC1D70E}">
-  <dimension ref="A2:O9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <f>14*13</f>
-        <v>182</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <f>SUM(E4:N9)</f>
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <f>B3-B4</f>
-        <v>149</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="4">
-        <f>B5/B3</f>
-        <v>0.81868131868131866</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>